--- a/FebruaryDota2schedule.xlsx
+++ b/FebruaryDota2schedule.xlsx
@@ -739,34 +739,34 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C4:E4"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="F24:H24"/>
-    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="X12:Z12"/>
     <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F15:H15"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F15:H15"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
